--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/ALABAMA_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/ALABAMA_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1075"/>
+  <dimension ref="A1:D1069"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="D17">
-        <v>0.0009531590413943355</v>
+        <v>0.0009531590413943356</v>
       </c>
     </row>
     <row r="18">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C25">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C27">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C32">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C36">
@@ -908,7 +908,7 @@
         <v>7</v>
       </c>
       <c r="D40">
-        <v>0.0009531590413943355</v>
+        <v>0.0009531590413943356</v>
       </c>
     </row>
     <row r="41">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C55">
@@ -1109,7 +1109,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C56">
@@ -1161,7 +1161,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C60">
@@ -1252,20 +1252,20 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C67">
         <v>7</v>
       </c>
       <c r="D67">
-        <v>0.0009531590413943355</v>
+        <v>0.0009531590413943356</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C68">
@@ -1647,7 +1647,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C97">
@@ -1673,7 +1673,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C99">
@@ -1803,7 +1803,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C109">
@@ -2016,7 +2016,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C125">
@@ -2075,7 +2075,7 @@
         <v>68</v>
       </c>
       <c r="D129">
-        <v>0.009259259259259259</v>
+        <v>0.00925925925925926</v>
       </c>
     </row>
     <row r="130">
@@ -2151,7 +2151,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C135">
@@ -2177,7 +2177,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2228,13 +2228,13 @@
         <v>7</v>
       </c>
       <c r="D140">
-        <v>0.0009531590413943355</v>
+        <v>0.0009531590413943356</v>
       </c>
     </row>
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C141">
@@ -2525,7 +2525,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C163">
@@ -2694,12 +2694,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C176">
@@ -2725,7 +2725,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C178">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C179">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C183">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C186">
@@ -2920,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C193">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C206">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C210">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C211">
@@ -3271,7 +3271,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C220">
@@ -3349,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C226">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C231">
@@ -3427,7 +3427,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C232">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C233">
@@ -3549,7 +3549,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C241">
@@ -3562,7 +3562,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C242">
@@ -3575,7 +3575,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C243">
@@ -3666,7 +3666,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C250">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C254">
@@ -3835,7 +3835,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C263">
@@ -3861,7 +3861,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C265">
@@ -3887,7 +3887,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C267">
@@ -3926,7 +3926,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C270">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C275">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C277">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C278">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C281">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C282">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C283">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C286">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C287">
@@ -4165,7 +4165,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C288">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C293">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C296">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C297">
@@ -4347,20 +4347,20 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C302">
         <v>7</v>
       </c>
       <c r="D302">
-        <v>0.0009531590413943355</v>
+        <v>0.0009531590413943356</v>
       </c>
     </row>
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C303">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C305">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C306">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C308">
@@ -4594,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C321">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C323">
@@ -4640,20 +4640,20 @@
         <v>67</v>
       </c>
       <c r="D324">
-        <v>0.009123093681917211</v>
+        <v>0.009123093681917212</v>
       </c>
     </row>
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C325">
         <v>7</v>
       </c>
       <c r="D325">
-        <v>0.0009531590413943355</v>
+        <v>0.0009531590413943356</v>
       </c>
     </row>
     <row r="326">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C327">
@@ -4711,7 +4711,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C330">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C342">
@@ -4885,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C343">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C348">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C352">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C355">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C358">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C361">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C362">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C363">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C366">
@@ -5204,7 +5204,7 @@
         <v>7</v>
       </c>
       <c r="D367">
-        <v>0.0009531590413943355</v>
+        <v>0.0009531590413943356</v>
       </c>
     </row>
     <row r="368">
@@ -5236,7 +5236,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C370">
@@ -5275,7 +5275,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C373">
@@ -5288,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C374">
@@ -5314,7 +5314,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C376">
@@ -5366,7 +5366,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C380">
@@ -5379,7 +5379,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C381">
@@ -5462,7 +5462,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C387">
@@ -5475,7 +5475,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C388">
@@ -5579,7 +5579,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C396">
@@ -5605,7 +5605,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C398">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C399">
@@ -5657,7 +5657,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C402">
@@ -5683,7 +5683,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C404">
@@ -5709,7 +5709,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C406">
@@ -5735,7 +5735,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C408">
@@ -5761,7 +5761,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C410">
@@ -5774,7 +5774,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C411">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C412">
@@ -5813,7 +5813,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C414">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C416">
@@ -5865,7 +5865,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C418">
@@ -5878,14 +5878,14 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C419">
         <v>7</v>
       </c>
       <c r="D419">
-        <v>0.0009531590413943355</v>
+        <v>0.0009531590413943356</v>
       </c>
     </row>
     <row r="420">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C421">
@@ -5969,7 +5969,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C426">
@@ -5982,7 +5982,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C427">
@@ -5995,7 +5995,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C428">
@@ -6034,7 +6034,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C431">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C432">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C435">
@@ -6099,14 +6099,14 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C436">
         <v>7</v>
       </c>
       <c r="D436">
-        <v>0.0009531590413943355</v>
+        <v>0.0009531590413943356</v>
       </c>
     </row>
     <row r="437">
@@ -6176,7 +6176,7 @@
         <v>7</v>
       </c>
       <c r="D441">
-        <v>0.0009531590413943355</v>
+        <v>0.0009531590413943356</v>
       </c>
     </row>
     <row r="442">
@@ -6332,7 +6332,7 @@
         <v>7</v>
       </c>
       <c r="D453">
-        <v>0.0009531590413943355</v>
+        <v>0.0009531590413943356</v>
       </c>
     </row>
     <row r="454">
@@ -7014,7 +7014,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C506">
@@ -7344,7 +7344,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C531">
@@ -7357,7 +7357,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C532">
@@ -7422,7 +7422,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C537">
@@ -7468,7 +7468,7 @@
         <v>7</v>
       </c>
       <c r="D540">
-        <v>0.0009531590413943355</v>
+        <v>0.0009531590413943356</v>
       </c>
     </row>
     <row r="541">
@@ -7544,7 +7544,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C546">
@@ -7757,7 +7757,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C562">
@@ -7809,7 +7809,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C566">
@@ -7853,7 +7853,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C569">
@@ -7905,7 +7905,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C573">
@@ -7944,7 +7944,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C576">
@@ -7957,7 +7957,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C577">
@@ -7970,7 +7970,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C578">
@@ -7983,7 +7983,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C579">
@@ -8061,7 +8061,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C585">
@@ -8074,7 +8074,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C586">
@@ -8100,7 +8100,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C588">
@@ -8113,7 +8113,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C589">
@@ -8126,7 +8126,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C590">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C592">
@@ -8165,7 +8165,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C593">
@@ -8282,7 +8282,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C602">
@@ -8373,7 +8373,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C609">
@@ -8425,7 +8425,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C613">
@@ -8659,7 +8659,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C631">
@@ -8672,7 +8672,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C632">
@@ -9017,7 +9017,7 @@
         <v>7</v>
       </c>
       <c r="D658">
-        <v>0.0009531590413943355</v>
+        <v>0.0009531590413943356</v>
       </c>
     </row>
     <row r="659">
@@ -9283,7 +9283,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C679">
@@ -9361,7 +9361,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C685">
@@ -9374,7 +9374,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C686">
@@ -9387,7 +9387,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C687">
@@ -9400,7 +9400,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C688">
@@ -9413,7 +9413,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C689">
@@ -9439,7 +9439,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C691">
@@ -9452,7 +9452,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C692">
@@ -9478,7 +9478,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C694">
@@ -9639,7 +9639,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C706">
@@ -9665,7 +9665,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C708">
@@ -9782,7 +9782,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C717">
@@ -9860,7 +9860,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C723">
@@ -9899,7 +9899,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C726">
@@ -9925,7 +9925,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C728">
@@ -9990,7 +9990,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C733">
@@ -10094,7 +10094,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C741">
@@ -10107,7 +10107,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C742">
@@ -10185,7 +10185,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C748">
@@ -10198,7 +10198,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C749">
@@ -10237,7 +10237,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C752">
@@ -10250,7 +10250,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C753">
@@ -10302,7 +10302,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C757">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C771">
@@ -10515,7 +10515,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C773">
@@ -10580,7 +10580,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C778">
@@ -10593,7 +10593,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C779">
@@ -10619,7 +10619,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C781">
@@ -10658,14 +10658,14 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C784">
         <v>7</v>
       </c>
       <c r="D784">
-        <v>0.0009531590413943355</v>
+        <v>0.0009531590413943356</v>
       </c>
     </row>
     <row r="785">
@@ -10824,7 +10824,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C796">
@@ -10863,7 +10863,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C799">
@@ -11058,7 +11058,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C814">
@@ -11110,7 +11110,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C818">
@@ -11136,7 +11136,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C820">
@@ -11149,7 +11149,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C821">
@@ -11162,7 +11162,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C822">
@@ -11574,7 +11574,7 @@
         <v>7</v>
       </c>
       <c r="D852">
-        <v>0.0009531590413943355</v>
+        <v>0.0009531590413943356</v>
       </c>
     </row>
     <row r="853">
@@ -11626,7 +11626,7 @@
         <v>7</v>
       </c>
       <c r="D856">
-        <v>0.0009531590413943355</v>
+        <v>0.0009531590413943356</v>
       </c>
     </row>
     <row r="857">
@@ -11910,7 +11910,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C878">
@@ -12084,7 +12084,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C891">
@@ -12097,7 +12097,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C892">
@@ -12182,7 +12182,7 @@
         <v>7</v>
       </c>
       <c r="D898">
-        <v>0.0009531590413943355</v>
+        <v>0.0009531590413943356</v>
       </c>
     </row>
     <row r="899">
@@ -12284,7 +12284,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C906">
@@ -12323,7 +12323,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C909">
@@ -12427,7 +12427,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C917">
@@ -12479,7 +12479,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C921">
@@ -12531,7 +12531,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C925">
@@ -12661,7 +12661,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C935">
@@ -12674,7 +12674,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C936">
@@ -12720,7 +12720,7 @@
         <v>7</v>
       </c>
       <c r="D939">
-        <v>0.0009531590413943355</v>
+        <v>0.0009531590413943356</v>
       </c>
     </row>
     <row r="940">
@@ -12869,7 +12869,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C951">
@@ -12908,7 +12908,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C954">
@@ -12954,7 +12954,7 @@
         <v>7</v>
       </c>
       <c r="D957">
-        <v>0.0009531590413943355</v>
+        <v>0.0009531590413943356</v>
       </c>
     </row>
     <row r="958">
@@ -13006,7 +13006,7 @@
         <v>7</v>
       </c>
       <c r="D961">
-        <v>0.0009531590413943355</v>
+        <v>0.0009531590413943356</v>
       </c>
     </row>
     <row r="962">
@@ -13025,7 +13025,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C963">
@@ -13090,7 +13090,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C968">
@@ -13103,7 +13103,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C969">
@@ -13142,7 +13142,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C972">
@@ -13194,7 +13194,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C976">
@@ -13285,7 +13285,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C983">
@@ -13298,7 +13298,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C984">
@@ -13344,13 +13344,13 @@
         <v>7</v>
       </c>
       <c r="D987">
-        <v>0.0009531590413943355</v>
+        <v>0.0009531590413943356</v>
       </c>
     </row>
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C988">
@@ -13441,7 +13441,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C995">
@@ -13480,7 +13480,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C998">
@@ -14244,7 +14244,7 @@
     <row r="1056">
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1056">
@@ -14421,41 +14421,6 @@
       </c>
       <c r="D1069">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1071">
-      <c r="A1071" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="1072">
-      <c r="A1072" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1073">
-      <c r="A1073" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1074">
-      <c r="A1074" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1075">
-      <c r="A1075" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>
